--- a/Code/Results/Cases/Case_6_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_45/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.42579167363286</v>
+        <v>24.59914660114032</v>
       </c>
       <c r="C2">
-        <v>17.71964190834627</v>
+        <v>17.91427503094414</v>
       </c>
       <c r="D2">
-        <v>3.991380576521917</v>
+        <v>7.855276361909105</v>
       </c>
       <c r="E2">
-        <v>9.406308944188314</v>
+        <v>11.21727282172399</v>
       </c>
       <c r="F2">
-        <v>39.03685849861573</v>
+        <v>21.7458507314483</v>
       </c>
       <c r="G2">
-        <v>2.08384511495763</v>
+        <v>2.074738317228585</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.731272560177056</v>
+        <v>6.317550898356937</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.17802490128099</v>
+        <v>14.55884088963547</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.6878741928492</v>
+        <v>22.94772181360853</v>
       </c>
       <c r="C3">
-        <v>16.46231711642773</v>
+        <v>16.76743049926761</v>
       </c>
       <c r="D3">
-        <v>3.850663594031171</v>
+        <v>7.482191502636586</v>
       </c>
       <c r="E3">
-        <v>9.028012544699802</v>
+        <v>10.72698244621897</v>
       </c>
       <c r="F3">
-        <v>37.47313938573696</v>
+        <v>21.31595244743732</v>
       </c>
       <c r="G3">
-        <v>2.095779860987807</v>
+        <v>2.081340434183186</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.602184177460922</v>
+        <v>6.2070224534457</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.19266675007131</v>
+        <v>14.5357021175332</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.56719472692422</v>
+        <v>21.87436244168807</v>
       </c>
       <c r="C4">
-        <v>15.65067140265205</v>
+        <v>16.02345263242452</v>
       </c>
       <c r="D4">
-        <v>3.762753460821168</v>
+        <v>7.246040869018927</v>
       </c>
       <c r="E4">
-        <v>8.795409113455227</v>
+        <v>10.42085636441161</v>
       </c>
       <c r="F4">
-        <v>36.53222416863642</v>
+        <v>21.08051742613811</v>
       </c>
       <c r="G4">
-        <v>2.103251040919873</v>
+        <v>2.085506311366049</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.527255082230845</v>
+        <v>6.142273431231563</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.60819271389029</v>
+        <v>14.54654285706749</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.09683904522935</v>
+        <v>21.42192784252063</v>
       </c>
       <c r="C5">
-        <v>15.30977951236271</v>
+        <v>15.71025895122019</v>
       </c>
       <c r="D5">
-        <v>3.726594717246175</v>
+        <v>7.148138294748277</v>
       </c>
       <c r="E5">
-        <v>8.70063088404746</v>
+        <v>10.29499464581142</v>
       </c>
       <c r="F5">
-        <v>36.15382001383963</v>
+        <v>20.99163027386302</v>
       </c>
       <c r="G5">
-        <v>2.10633503180492</v>
+        <v>2.087233116315934</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.497788292560299</v>
+        <v>6.11667791222933</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.37520041397306</v>
+        <v>14.55692064727647</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.01790603872806</v>
+        <v>21.34589065484483</v>
       </c>
       <c r="C6">
-        <v>15.25255749224515</v>
+        <v>15.65764854262176</v>
       </c>
       <c r="D6">
-        <v>3.720571797165962</v>
+        <v>7.131784403234581</v>
       </c>
       <c r="E6">
-        <v>8.684896614456068</v>
+        <v>10.27403348699302</v>
       </c>
       <c r="F6">
-        <v>36.09129642562209</v>
+        <v>20.97729259075141</v>
       </c>
       <c r="G6">
-        <v>2.10684960159599</v>
+        <v>2.087521640643649</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.492959195953205</v>
+        <v>6.112475690984328</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.33682625429177</v>
+        <v>14.5589938074787</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.56090693235643</v>
+        <v>21.86832174529757</v>
       </c>
       <c r="C7">
-        <v>15.64611528816512</v>
+        <v>16.01926934635692</v>
       </c>
       <c r="D7">
-        <v>3.762267102813459</v>
+        <v>7.244727120680627</v>
       </c>
       <c r="E7">
-        <v>8.794130728753558</v>
+        <v>10.41916321902889</v>
       </c>
       <c r="F7">
-        <v>36.52710023517544</v>
+        <v>21.07929028024095</v>
       </c>
       <c r="G7">
-        <v>2.103292468768126</v>
+        <v>2.085529480276464</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.526853389227413</v>
+        <v>6.141925033671447</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.60502946497643</v>
+        <v>14.54665913618855</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.83755599975044</v>
+        <v>24.04199716939258</v>
       </c>
       <c r="C8">
-        <v>17.29423723493556</v>
+        <v>17.52709727240834</v>
       </c>
       <c r="D8">
-        <v>3.943199738932002</v>
+        <v>7.728165297461373</v>
       </c>
       <c r="E8">
-        <v>9.275990219444759</v>
+        <v>11.04936874300118</v>
       </c>
       <c r="F8">
-        <v>38.49380052420911</v>
+        <v>21.59164074965907</v>
       </c>
       <c r="G8">
-        <v>2.087932648623527</v>
+        <v>2.076992054779649</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.685850371372553</v>
+        <v>6.27879838727675</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.83401704319654</v>
+        <v>14.54546325489264</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.88695303267611</v>
+        <v>27.83819214492261</v>
       </c>
       <c r="C9">
-        <v>20.22009850743524</v>
+        <v>20.16912330486191</v>
       </c>
       <c r="D9">
-        <v>4.284369977294715</v>
+        <v>8.616145083884033</v>
       </c>
       <c r="E9">
-        <v>10.21525569898501</v>
+        <v>12.23874297837118</v>
       </c>
       <c r="F9">
-        <v>42.49785327483271</v>
+        <v>22.82636967746522</v>
       </c>
       <c r="G9">
-        <v>2.058776184889048</v>
+        <v>2.061092918715988</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.033103368219702</v>
+        <v>6.571599015594481</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>30.40761802288669</v>
+        <v>14.75635455324574</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.6252247881806</v>
+        <v>30.34984596607985</v>
       </c>
       <c r="C10">
-        <v>22.19619075593092</v>
+        <v>21.92068647866715</v>
       </c>
       <c r="D10">
-        <v>4.524940970737804</v>
+        <v>9.227888667751408</v>
       </c>
       <c r="E10">
-        <v>10.89940252384365</v>
+        <v>13.07772807690909</v>
       </c>
       <c r="F10">
-        <v>45.52947852756554</v>
+        <v>23.8769934215589</v>
       </c>
       <c r="G10">
-        <v>2.037670541599597</v>
+        <v>2.049854913203019</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.311671059846748</v>
+        <v>6.801158123475139</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>32.40257420435174</v>
+        <v>15.05981216847431</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.82378179523073</v>
+        <v>31.43381266743743</v>
       </c>
       <c r="C11">
-        <v>23.06082316467317</v>
+        <v>22.67708922657915</v>
       </c>
       <c r="D11">
-        <v>4.631948153206109</v>
+        <v>9.496799713704425</v>
       </c>
       <c r="E11">
-        <v>11.20932789447383</v>
+        <v>13.45090164306223</v>
       </c>
       <c r="F11">
-        <v>46.93052620177031</v>
+        <v>24.38642607936302</v>
       </c>
       <c r="G11">
-        <v>2.028066091848451</v>
+        <v>2.044821583510183</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.444019016616068</v>
+        <v>6.908649533934397</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>33.33506245101527</v>
+        <v>15.23363105390782</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.27128591715049</v>
+        <v>31.83599252390109</v>
       </c>
       <c r="C12">
-        <v>23.38362474497275</v>
+        <v>22.95778063971031</v>
       </c>
       <c r="D12">
-        <v>4.672107775596181</v>
+        <v>9.597251283669962</v>
       </c>
       <c r="E12">
-        <v>11.32653609054787</v>
+        <v>13.59094132288661</v>
       </c>
       <c r="F12">
-        <v>47.46460601283162</v>
+        <v>24.58387760043594</v>
       </c>
       <c r="G12">
-        <v>2.024421636056152</v>
+        <v>2.042925395489922</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.495001790173244</v>
+        <v>6.949789759263801</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>33.69207298978724</v>
+        <v>15.30485083539183</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.17518376176958</v>
+        <v>31.74974264312443</v>
       </c>
       <c r="C13">
-        <v>23.31430342939289</v>
+        <v>22.89758294727145</v>
       </c>
       <c r="D13">
-        <v>4.663474892225327</v>
+        <v>9.575678957884087</v>
       </c>
       <c r="E13">
-        <v>11.30129920193515</v>
+        <v>13.560838530736</v>
       </c>
       <c r="F13">
-        <v>47.34941736764574</v>
+        <v>24.54115074855963</v>
       </c>
       <c r="G13">
-        <v>2.025206989053324</v>
+        <v>2.043333362164665</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.483982197617515</v>
+        <v>6.94091015565481</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>33.61500493169483</v>
+        <v>15.28926851385159</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.86072320717261</v>
+        <v>31.46706570937026</v>
       </c>
       <c r="C14">
-        <v>23.08747078533411</v>
+        <v>22.70029654400461</v>
       </c>
       <c r="D14">
-        <v>4.635259404599043</v>
+        <v>9.505091704599385</v>
       </c>
       <c r="E14">
-        <v>11.21897347016123</v>
+        <v>13.46244854071115</v>
       </c>
       <c r="F14">
-        <v>46.97439168117864</v>
+        <v>24.40257946872206</v>
       </c>
       <c r="G14">
-        <v>2.02776645349806</v>
+        <v>2.044665395253226</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.448195682140272</v>
+        <v>6.912025455172982</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>33.36435364918489</v>
+        <v>15.23938079274504</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.66729147618218</v>
+        <v>31.29284171330141</v>
       </c>
       <c r="C15">
-        <v>22.94793824923009</v>
+        <v>22.57870727539004</v>
       </c>
       <c r="D15">
-        <v>4.617929252320335</v>
+        <v>9.461674628356947</v>
       </c>
       <c r="E15">
-        <v>11.16852803957579</v>
+        <v>13.40201479859959</v>
       </c>
       <c r="F15">
-        <v>46.74515189081177</v>
+        <v>24.31829220647518</v>
       </c>
       <c r="G15">
-        <v>2.029333003022213</v>
+        <v>2.045482536105558</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.426390027193758</v>
+        <v>6.894389360189909</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>33.21134109948628</v>
+        <v>15.20953325123197</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.54598222661698</v>
+        <v>30.27783814528023</v>
       </c>
       <c r="C16">
-        <v>22.13902085385701</v>
+        <v>21.87044647712816</v>
       </c>
       <c r="D16">
-        <v>4.51789770574818</v>
+        <v>9.210123135200938</v>
       </c>
       <c r="E16">
-        <v>10.87912418660562</v>
+        <v>13.05316460338534</v>
       </c>
       <c r="F16">
-        <v>45.43838686790941</v>
+        <v>23.84433556203564</v>
       </c>
       <c r="G16">
-        <v>2.038297574232031</v>
+        <v>2.050185313664536</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.303139545454816</v>
+        <v>6.794194473960657</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>32.3421600953714</v>
+        <v>15.04919486556996</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.84630608942217</v>
+        <v>29.64024956130238</v>
       </c>
       <c r="C17">
-        <v>21.63420291041692</v>
+        <v>21.42565065102717</v>
       </c>
       <c r="D17">
-        <v>4.45589844108676</v>
+        <v>9.053377596281619</v>
       </c>
       <c r="E17">
-        <v>10.70126604889483</v>
+        <v>12.83693930292047</v>
       </c>
       <c r="F17">
-        <v>44.64256677609254</v>
+        <v>23.56165406027969</v>
       </c>
       <c r="G17">
-        <v>2.043791537208468</v>
+        <v>2.053089480499163</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.229006454061264</v>
+        <v>6.733508551210488</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>31.81552567005226</v>
+        <v>14.96018399127211</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.43941029161525</v>
+        <v>29.26800177126713</v>
       </c>
       <c r="C18">
-        <v>21.34059507344123</v>
+        <v>21.16600944501437</v>
       </c>
       <c r="D18">
-        <v>4.420009725501536</v>
+        <v>8.962340463243528</v>
       </c>
       <c r="E18">
-        <v>10.59884100031587</v>
+        <v>12.7117754916986</v>
       </c>
       <c r="F18">
-        <v>44.18686573590828</v>
+        <v>23.40202758419362</v>
       </c>
       <c r="G18">
-        <v>2.046951673937481</v>
+        <v>2.054767404765714</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.186892540711029</v>
+        <v>6.698892167917522</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>31.51494558756285</v>
+        <v>14.91234098358174</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.30086471266781</v>
+        <v>29.14101247089506</v>
       </c>
       <c r="C19">
-        <v>21.24061736257454</v>
+        <v>21.0774437510883</v>
       </c>
       <c r="D19">
-        <v>4.407819681016956</v>
+        <v>8.931366639865477</v>
       </c>
       <c r="E19">
-        <v>10.56413953396128</v>
+        <v>12.66926226433332</v>
       </c>
       <c r="F19">
-        <v>44.03291365040517</v>
+        <v>23.34848961145579</v>
       </c>
       <c r="G19">
-        <v>2.048021864424504</v>
+        <v>2.05533685765557</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.172722236687965</v>
+        <v>6.687221407203178</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>31.41356628898196</v>
+        <v>14.89671000454782</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.92124668212715</v>
+        <v>29.70869270606935</v>
       </c>
       <c r="C20">
-        <v>21.68827583689913</v>
+        <v>21.47339342010197</v>
       </c>
       <c r="D20">
-        <v>4.46252211492816</v>
+        <v>9.07015489442289</v>
       </c>
       <c r="E20">
-        <v>10.72021222551951</v>
+        <v>12.86003975899552</v>
       </c>
       <c r="F20">
-        <v>44.7270705056778</v>
+        <v>23.59143910253785</v>
       </c>
       <c r="G20">
-        <v>2.043206726705299</v>
+        <v>2.052779558848854</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.236843296382195</v>
+        <v>6.739938851278149</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>31.87134419313924</v>
+        <v>14.96931033507796</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.95325704197822</v>
+        <v>31.55031881417588</v>
       </c>
       <c r="C21">
-        <v>23.15421956526485</v>
+        <v>22.75839960545191</v>
       </c>
       <c r="D21">
-        <v>4.643556857760061</v>
+        <v>9.525862515673964</v>
       </c>
       <c r="E21">
-        <v>11.24315829573686</v>
+        <v>13.49138294286294</v>
       </c>
       <c r="F21">
-        <v>47.08444605980726</v>
+        <v>24.44315789048209</v>
       </c>
       <c r="G21">
-        <v>2.027014940041149</v>
+        <v>2.044273890973495</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.458683041997902</v>
+        <v>6.920497797889332</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>33.43786722027675</v>
+        <v>15.25388561792063</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.24443704234233</v>
+        <v>32.70564551717966</v>
       </c>
       <c r="C22">
-        <v>24.08557360588079</v>
+        <v>23.56479397607783</v>
       </c>
       <c r="D22">
-        <v>4.759764502762584</v>
+        <v>9.815648070815921</v>
       </c>
       <c r="E22">
-        <v>11.5840748911848</v>
+        <v>13.89657071078575</v>
       </c>
       <c r="F22">
-        <v>48.64602604696175</v>
+        <v>25.0262785955648</v>
       </c>
       <c r="G22">
-        <v>2.016385149662493</v>
+        <v>2.038771408820421</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.608749609456153</v>
+        <v>7.041041978775181</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>34.48462666551955</v>
+        <v>15.47143777082518</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.5585311965545</v>
+        <v>32.09339850705522</v>
       </c>
       <c r="C23">
-        <v>23.59082123326583</v>
+        <v>23.13744100526969</v>
       </c>
       <c r="D23">
-        <v>4.697937583538098</v>
+        <v>9.661727665653881</v>
       </c>
       <c r="E23">
-        <v>11.40218097383781</v>
+        <v>13.68100692398508</v>
       </c>
       <c r="F23">
-        <v>47.81049856467215</v>
+        <v>24.71262931848451</v>
       </c>
       <c r="G23">
-        <v>2.022065409189684</v>
+        <v>2.04170355786591</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.528168881425061</v>
+        <v>6.976473954144848</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>33.92371977329199</v>
+        <v>15.35236041907414</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.88738053112593</v>
+        <v>29.67776729207279</v>
       </c>
       <c r="C24">
-        <v>21.66384002204421</v>
+        <v>21.45182113578824</v>
       </c>
       <c r="D24">
-        <v>4.459528312562024</v>
+        <v>9.062572747369375</v>
       </c>
       <c r="E24">
-        <v>10.7116471969551</v>
+        <v>12.84959869548741</v>
       </c>
       <c r="F24">
-        <v>44.68886070652729</v>
+        <v>23.57796428120242</v>
       </c>
       <c r="G24">
-        <v>2.043471114087834</v>
+        <v>2.052919648523068</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.233298687369445</v>
+        <v>6.737030862604894</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>31.84610184200602</v>
+        <v>14.96517396073976</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.83437423274156</v>
+        <v>26.86045458120171</v>
       </c>
       <c r="C25">
-        <v>19.46007985931353</v>
+        <v>19.4878834287348</v>
       </c>
       <c r="D25">
-        <v>4.19374133133809</v>
+        <v>8.382827796017851</v>
       </c>
       <c r="E25">
-        <v>9.962107039166499</v>
+        <v>11.92271784811379</v>
       </c>
       <c r="F25">
-        <v>41.39924580943856</v>
+        <v>22.46729659434857</v>
       </c>
       <c r="G25">
-        <v>2.066586622575671</v>
+        <v>2.065310819641762</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.935196731687535</v>
+        <v>6.48982261930911</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>29.69362598724363</v>
+        <v>14.6744886915567</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.59914660114032</v>
+        <v>24.48374910319197</v>
       </c>
       <c r="C2">
-        <v>17.91427503094414</v>
+        <v>18.93452982913455</v>
       </c>
       <c r="D2">
-        <v>7.855276361909105</v>
+        <v>8.666632991501794</v>
       </c>
       <c r="E2">
-        <v>11.21727282172399</v>
+        <v>11.58878896687837</v>
       </c>
       <c r="F2">
-        <v>21.7458507314483</v>
+        <v>18.39098938640583</v>
       </c>
       <c r="G2">
-        <v>2.074738317228585</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>17.55946774867589</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.120295309185526</v>
       </c>
       <c r="J2">
-        <v>6.317550898356937</v>
+        <v>7.645217608648776</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.44810542319538</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.237765368665564</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,45 +463,48 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.55884088963547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>11.94070867562075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.94772181360853</v>
+        <v>22.89100457203322</v>
       </c>
       <c r="C3">
-        <v>16.76743049926761</v>
+        <v>17.78087173513977</v>
       </c>
       <c r="D3">
-        <v>7.482191502636586</v>
+        <v>8.263523845990136</v>
       </c>
       <c r="E3">
-        <v>10.72698244621897</v>
+        <v>11.08555832958078</v>
       </c>
       <c r="F3">
-        <v>21.31595244743732</v>
+        <v>18.09666629335168</v>
       </c>
       <c r="G3">
-        <v>2.081340434183186</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>17.29581145683957</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.95312460850926</v>
       </c>
       <c r="J3">
-        <v>6.2070224534457</v>
+        <v>7.732607113804573</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.81552672839701</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.126782015191952</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,45 +513,48 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.5357021175332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.00248532438218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.87436244168807</v>
+        <v>21.85386809627754</v>
       </c>
       <c r="C4">
-        <v>16.02345263242452</v>
+        <v>17.03789149835401</v>
       </c>
       <c r="D4">
-        <v>7.246040869018927</v>
+        <v>8.009600097585993</v>
       </c>
       <c r="E4">
-        <v>10.42085636441161</v>
+        <v>10.77105414224903</v>
       </c>
       <c r="F4">
-        <v>21.08051742613811</v>
+        <v>17.93149578744532</v>
       </c>
       <c r="G4">
-        <v>2.085506311366049</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>17.15888115005419</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.847848638930253</v>
       </c>
       <c r="J4">
-        <v>6.142273431231563</v>
+        <v>7.791449650032596</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>11.04674940407165</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.060992141773125</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,45 +563,48 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.54654285706749</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.05290286087173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.42192784252063</v>
+        <v>21.41616470848384</v>
       </c>
       <c r="C5">
-        <v>15.71025895122019</v>
+        <v>16.7402282089903</v>
       </c>
       <c r="D5">
-        <v>7.148138294748277</v>
+        <v>7.906671549579547</v>
       </c>
       <c r="E5">
-        <v>10.29499464581142</v>
+        <v>10.64260845910171</v>
       </c>
       <c r="F5">
-        <v>20.99163027386302</v>
+        <v>17.86053279762077</v>
       </c>
       <c r="G5">
-        <v>2.087233116315934</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>17.09561244265505</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.80483560118564</v>
       </c>
       <c r="J5">
-        <v>6.11667791222933</v>
+        <v>7.814639850596923</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>11.13986764339289</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.034618174632458</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,45 +613,48 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.55692064727647</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.0711145096201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.34589065484483</v>
+        <v>21.34240270115555</v>
       </c>
       <c r="C6">
-        <v>15.65764854262176</v>
+        <v>16.70710439026183</v>
       </c>
       <c r="D6">
-        <v>7.131784403234581</v>
+        <v>7.89196932873068</v>
       </c>
       <c r="E6">
-        <v>10.27403348699302</v>
+        <v>10.62233444500846</v>
       </c>
       <c r="F6">
-        <v>20.97729259075141</v>
+        <v>17.83976445040801</v>
       </c>
       <c r="G6">
-        <v>2.087521640643649</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>17.06886403218605</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.798537352282026</v>
       </c>
       <c r="J6">
-        <v>6.112475690984328</v>
+        <v>7.816071619214411</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>11.1523256311082</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.030061186627456</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,45 +663,48 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.5589938074787</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.06781765016704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.86832174529757</v>
+        <v>21.84754918193296</v>
       </c>
       <c r="C7">
-        <v>16.01926934635692</v>
+        <v>17.07885700454992</v>
       </c>
       <c r="D7">
-        <v>7.244727120680627</v>
+        <v>8.014855817053347</v>
       </c>
       <c r="E7">
-        <v>10.41916321902889</v>
+        <v>10.77233624921373</v>
       </c>
       <c r="F7">
-        <v>21.07929028024095</v>
+        <v>17.90548228547168</v>
       </c>
       <c r="G7">
-        <v>2.085529480276464</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>17.11284767376048</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.849336396012672</v>
       </c>
       <c r="J7">
-        <v>6.141925033671447</v>
+        <v>7.784940686334699</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11.03955129283674</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.060049053796526</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,45 +713,48 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.54665913618855</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.03538189983924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.04199716939258</v>
+        <v>23.94626712033045</v>
       </c>
       <c r="C8">
-        <v>17.52709727240834</v>
+        <v>18.59922868083011</v>
       </c>
       <c r="D8">
-        <v>7.728165297461373</v>
+        <v>8.537313653198595</v>
       </c>
       <c r="E8">
-        <v>11.04936874300118</v>
+        <v>11.42028099429194</v>
       </c>
       <c r="F8">
-        <v>21.59164074965907</v>
+        <v>18.25385125584188</v>
       </c>
       <c r="G8">
-        <v>2.076992054779649</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>17.40472935967385</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.065399402237809</v>
       </c>
       <c r="J8">
-        <v>6.27879838727675</v>
+        <v>7.665183788877903</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.56247433545455</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.19826086605411</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,45 +763,48 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.54546325489264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>11.93581296633544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.83819214492261</v>
+        <v>27.59485692872758</v>
       </c>
       <c r="C9">
-        <v>20.16912330486191</v>
+        <v>21.23193291881453</v>
       </c>
       <c r="D9">
-        <v>8.616145083884033</v>
+        <v>9.494990896422264</v>
       </c>
       <c r="E9">
-        <v>12.23874297837118</v>
+        <v>12.63504542859554</v>
       </c>
       <c r="F9">
-        <v>22.82636967746522</v>
+        <v>19.10443753339616</v>
       </c>
       <c r="G9">
-        <v>2.061092918715988</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>18.25952437141064</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.466462143899549</v>
       </c>
       <c r="J9">
-        <v>6.571599015594481</v>
+        <v>7.486349028317199</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>9.685629494529847</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.488093782042445</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,45 +813,48 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.75635455324574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>11.87881721659933</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.34984596607985</v>
+        <v>29.99331443807506</v>
       </c>
       <c r="C10">
-        <v>21.92068647866715</v>
+        <v>23.01472020731065</v>
       </c>
       <c r="D10">
-        <v>9.227888667751408</v>
+        <v>10.16169439215179</v>
       </c>
       <c r="E10">
-        <v>13.07772807690909</v>
+        <v>13.48984628237044</v>
       </c>
       <c r="F10">
-        <v>23.8769934215589</v>
+        <v>19.79314211682137</v>
       </c>
       <c r="G10">
-        <v>2.049854913203019</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>18.99572811253831</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.750990690026456</v>
       </c>
       <c r="J10">
-        <v>6.801158123475139</v>
+        <v>7.382056644214178</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>9.062519431996048</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.710370524036626</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,45 +863,48 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.05981216847431</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>11.90309532870164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.43381266743743</v>
+        <v>31.02348342345423</v>
       </c>
       <c r="C11">
-        <v>22.67708922657915</v>
+        <v>23.84277505941999</v>
       </c>
       <c r="D11">
-        <v>9.496799713704425</v>
+        <v>10.46375844288769</v>
       </c>
       <c r="E11">
-        <v>13.45090164306223</v>
+        <v>13.87275148765164</v>
       </c>
       <c r="F11">
-        <v>24.38642607936302</v>
+        <v>20.08679301711393</v>
       </c>
       <c r="G11">
-        <v>2.044821583510183</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>19.2952065021377</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.881673745658956</v>
       </c>
       <c r="J11">
-        <v>6.908649533934397</v>
+        <v>7.330816105876611</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>8.769998992945277</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.812458061245715</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,45 +913,48 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.23363105390782</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.9041219331289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.83599252390109</v>
+        <v>31.40525015018246</v>
       </c>
       <c r="C12">
-        <v>22.95778063971031</v>
+        <v>24.1212183194527</v>
       </c>
       <c r="D12">
-        <v>9.597251283669962</v>
+        <v>10.57218156844221</v>
       </c>
       <c r="E12">
-        <v>13.59094132288661</v>
+        <v>14.01420960961684</v>
       </c>
       <c r="F12">
-        <v>24.58387760043594</v>
+        <v>20.21971346160046</v>
       </c>
       <c r="G12">
-        <v>2.042925395489922</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>19.44748107500784</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.929092875981245</v>
       </c>
       <c r="J12">
-        <v>6.949789759263801</v>
+        <v>7.318594583180592</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>8.667480140315426</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.851827371612989</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,45 +963,48 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.30485083539183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11.92251142761813</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.74974264312443</v>
+        <v>31.32346739114346</v>
       </c>
       <c r="C13">
-        <v>22.89758294727145</v>
+        <v>24.05565403443672</v>
       </c>
       <c r="D13">
-        <v>9.575678957884087</v>
+        <v>10.54800445440964</v>
       </c>
       <c r="E13">
-        <v>13.560838530736</v>
+        <v>13.98340658926599</v>
       </c>
       <c r="F13">
-        <v>24.54115074855963</v>
+        <v>20.19482652589179</v>
       </c>
       <c r="G13">
-        <v>2.043333362164665</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>19.42135920213995</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.918484933371437</v>
       </c>
       <c r="J13">
-        <v>6.94091015565481</v>
+        <v>7.322385045770796</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>8.691048522276803</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.843430777148524</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,45 +1013,48 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.28926851385159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.92146088956027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.46706570937026</v>
+        <v>31.0550876246886</v>
       </c>
       <c r="C14">
-        <v>22.70029654400461</v>
+        <v>23.86329232857708</v>
       </c>
       <c r="D14">
-        <v>9.505091704599385</v>
+        <v>10.47232626325537</v>
       </c>
       <c r="E14">
-        <v>13.46244854071115</v>
+        <v>13.88424629214414</v>
       </c>
       <c r="F14">
-        <v>24.40257946872206</v>
+        <v>20.09932259865498</v>
       </c>
       <c r="G14">
-        <v>2.044665395253226</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>19.31058143686333</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.88540100957748</v>
       </c>
       <c r="J14">
-        <v>6.912025455172982</v>
+        <v>7.330301303898551</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>8.762193277338412</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.815731799117504</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,45 +1063,48 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.23938079274504</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.90687014655078</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.29284171330141</v>
+        <v>30.88946627202397</v>
       </c>
       <c r="C15">
-        <v>22.57870727539004</v>
+        <v>23.75643554490188</v>
       </c>
       <c r="D15">
-        <v>9.461674628356947</v>
+        <v>10.42756361143569</v>
       </c>
       <c r="E15">
-        <v>13.40201479859959</v>
+        <v>13.82412147197149</v>
       </c>
       <c r="F15">
-        <v>24.31829220647518</v>
+        <v>20.03348308896123</v>
       </c>
       <c r="G15">
-        <v>2.045482536105558</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>19.22960396089471</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.86598826132829</v>
       </c>
       <c r="J15">
-        <v>6.894389360189909</v>
+        <v>7.33292060666998</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>8.802904175648269</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.798612445013272</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,45 +1113,48 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.20953325123197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.89230314101274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.27783814528023</v>
+        <v>29.92382228944695</v>
       </c>
       <c r="C16">
-        <v>21.87044647712816</v>
+        <v>23.06024889164669</v>
       </c>
       <c r="D16">
-        <v>9.210123135200938</v>
+        <v>10.15705290793307</v>
       </c>
       <c r="E16">
-        <v>13.05316460338534</v>
+        <v>13.47157050543038</v>
       </c>
       <c r="F16">
-        <v>23.84433556203564</v>
+        <v>19.70906776787509</v>
       </c>
       <c r="G16">
-        <v>2.050185313664536</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>18.85989586765776</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.748909007031968</v>
       </c>
       <c r="J16">
-        <v>6.794194473960657</v>
+        <v>7.365485526995179</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>9.056799853085295</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.70216822393482</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,45 +1163,48 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.04919486556996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.85262882981683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.64024956130238</v>
+        <v>29.31600535215002</v>
       </c>
       <c r="C17">
-        <v>21.42565065102717</v>
+        <v>22.62383544271507</v>
       </c>
       <c r="D17">
-        <v>9.053377596281619</v>
+        <v>9.988648424890783</v>
       </c>
       <c r="E17">
-        <v>12.83693930292047</v>
+        <v>13.25275273711433</v>
       </c>
       <c r="F17">
-        <v>23.56165406027969</v>
+        <v>19.51425128866702</v>
       </c>
       <c r="G17">
-        <v>2.053089480499163</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>18.64048329945517</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.676716473601037</v>
       </c>
       <c r="J17">
-        <v>6.733508551210488</v>
+        <v>7.38754601997135</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>9.214051182403342</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.643461863945964</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,45 +1213,48 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.96018399127211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.83331032984244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.26800177126713</v>
+        <v>28.96101372058687</v>
       </c>
       <c r="C18">
-        <v>21.16600944501437</v>
+        <v>22.33807844463932</v>
       </c>
       <c r="D18">
-        <v>8.962340463243528</v>
+        <v>9.886139732158625</v>
       </c>
       <c r="E18">
-        <v>12.7117754916986</v>
+        <v>13.12382273174533</v>
       </c>
       <c r="F18">
-        <v>23.40202758419362</v>
+        <v>19.42383934343801</v>
       </c>
       <c r="G18">
-        <v>2.054767404765714</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>18.55309051922496</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.632285947534055</v>
       </c>
       <c r="J18">
-        <v>6.698892167917522</v>
+        <v>7.40703885634359</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>9.312408900607975</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.610351269902831</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,45 +1263,48 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.91234098358174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.83943246500469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.14101247089506</v>
+        <v>28.83961137166469</v>
       </c>
       <c r="C19">
-        <v>21.0774437510883</v>
+        <v>22.2648364598093</v>
       </c>
       <c r="D19">
-        <v>8.931366639865477</v>
+        <v>9.854947648487013</v>
       </c>
       <c r="E19">
-        <v>12.66926226433332</v>
+        <v>13.08168272746997</v>
       </c>
       <c r="F19">
-        <v>23.34848961145579</v>
+        <v>19.3780275462511</v>
       </c>
       <c r="G19">
-        <v>2.05533685765557</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>18.49618775730915</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.619279392811967</v>
       </c>
       <c r="J19">
-        <v>6.687221407203178</v>
+        <v>7.409083658806138</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>9.340111966938277</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.598801305796131</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,45 +1313,48 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.89671000454782</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11.82990140932291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.70869270606935</v>
+        <v>29.38131986305931</v>
       </c>
       <c r="C20">
-        <v>21.47339342010197</v>
+        <v>22.6682179026877</v>
       </c>
       <c r="D20">
-        <v>9.07015489442289</v>
+        <v>10.00629760165353</v>
       </c>
       <c r="E20">
-        <v>12.86003975899552</v>
+        <v>13.27597265982646</v>
       </c>
       <c r="F20">
-        <v>23.59143910253785</v>
+        <v>19.53639444055918</v>
       </c>
       <c r="G20">
-        <v>2.052779558848854</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>18.66636741233959</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.684195007812588</v>
       </c>
       <c r="J20">
-        <v>6.739938851278149</v>
+        <v>7.385596901008119</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>9.197833773110659</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.649730764619501</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,45 +1363,48 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.96931033507796</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>11.83638982140841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.55031881417588</v>
+        <v>31.13384102912233</v>
       </c>
       <c r="C21">
-        <v>22.75839960545191</v>
+        <v>23.95276690297711</v>
       </c>
       <c r="D21">
-        <v>9.525862515673964</v>
+        <v>10.4996027444099</v>
       </c>
       <c r="E21">
-        <v>13.49138294286294</v>
+        <v>13.91568761308115</v>
       </c>
       <c r="F21">
-        <v>24.44315789048209</v>
+        <v>20.10571842767704</v>
       </c>
       <c r="G21">
-        <v>2.044273890973495</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>19.30445937440942</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.897654297504142</v>
       </c>
       <c r="J21">
-        <v>6.920497797889332</v>
+        <v>7.321150290529904</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>8.732796117941147</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.823339647570934</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,45 +1413,48 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.25388561792063</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>11.89402749459159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.70564551717966</v>
+        <v>32.22938542134168</v>
       </c>
       <c r="C22">
-        <v>23.56479397607783</v>
+        <v>24.72015154996761</v>
       </c>
       <c r="D22">
-        <v>9.815648070815921</v>
+        <v>10.8074242212087</v>
       </c>
       <c r="E22">
-        <v>13.89657071078575</v>
+        <v>14.32229592363398</v>
       </c>
       <c r="F22">
-        <v>25.0262785955648</v>
+        <v>20.5187460021161</v>
       </c>
       <c r="G22">
-        <v>2.038771408820421</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>19.7943116080764</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.032687936136341</v>
       </c>
       <c r="J22">
-        <v>7.041041978775181</v>
+        <v>7.294813456633266</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>8.444552067666802</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.938887462636522</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,45 +1463,48 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.47143777082518</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>11.97038985667917</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.09339850705522</v>
+        <v>31.64961677777798</v>
       </c>
       <c r="C23">
-        <v>23.13744100526969</v>
+        <v>24.27417182096914</v>
       </c>
       <c r="D23">
-        <v>9.661727665653881</v>
+        <v>10.63791858267788</v>
       </c>
       <c r="E23">
-        <v>13.68100692398508</v>
+        <v>14.10337336930684</v>
       </c>
       <c r="F23">
-        <v>24.71262931848451</v>
+        <v>20.3229525360431</v>
       </c>
       <c r="G23">
-        <v>2.04170355786591</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>19.57683159674651</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.958015699702908</v>
       </c>
       <c r="J23">
-        <v>6.976473954144848</v>
+        <v>7.316378562836913</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>8.608261865852921</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.877719493447181</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,45 +1513,48 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.35236041907414</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>11.94853174470959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.67776729207279</v>
+        <v>29.35243398119816</v>
       </c>
       <c r="C24">
-        <v>21.45182113578824</v>
+        <v>22.58264278443514</v>
       </c>
       <c r="D24">
-        <v>9.062572747369375</v>
+        <v>9.988349221608161</v>
       </c>
       <c r="E24">
-        <v>12.84959869548741</v>
+        <v>13.26094501499046</v>
       </c>
       <c r="F24">
-        <v>23.57796428120242</v>
+        <v>19.56860970853995</v>
       </c>
       <c r="G24">
-        <v>2.052919648523068</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>18.73045048101291</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.675808079825392</v>
       </c>
       <c r="J24">
-        <v>6.737030862604894</v>
+        <v>7.399326544388305</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>9.220924481838821</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.647907581667735</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,45 +1563,48 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.96517396073976</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>11.86762665467086</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.86045458120171</v>
+        <v>26.65691247313341</v>
       </c>
       <c r="C25">
-        <v>19.4878834287348</v>
+        <v>20.61811131895987</v>
       </c>
       <c r="D25">
-        <v>8.382827796017851</v>
+        <v>9.252928007090128</v>
       </c>
       <c r="E25">
-        <v>11.92271784811379</v>
+        <v>12.31749180114455</v>
       </c>
       <c r="F25">
-        <v>22.46729659434857</v>
+        <v>18.81838650574197</v>
       </c>
       <c r="G25">
-        <v>2.065310819641762</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>17.9289007092015</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.363686873373759</v>
       </c>
       <c r="J25">
-        <v>6.48982261930911</v>
+        <v>7.517224612456586</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>9.903064685490506</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.40689870690452</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1613,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.6744886915567</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>11.84981333379278</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.48374910319197</v>
+        <v>24.48515436552924</v>
       </c>
       <c r="C2">
-        <v>18.93452982913455</v>
+        <v>18.93335626013809</v>
       </c>
       <c r="D2">
-        <v>8.666632991501794</v>
+        <v>8.670085397957683</v>
       </c>
       <c r="E2">
-        <v>11.58878896687837</v>
+        <v>11.58975687194933</v>
       </c>
       <c r="F2">
-        <v>18.39098938640583</v>
+        <v>18.39299888789028</v>
       </c>
       <c r="G2">
-        <v>17.55946774867589</v>
+        <v>16.81751809477528</v>
       </c>
       <c r="I2">
-        <v>3.120295309185526</v>
+        <v>3.124132013441745</v>
       </c>
       <c r="J2">
-        <v>7.645217608648776</v>
+        <v>8.281319444442214</v>
       </c>
       <c r="K2">
-        <v>10.44810542319538</v>
+        <v>10.42304300751899</v>
       </c>
       <c r="L2">
-        <v>6.237765368665564</v>
+        <v>9.748310736132506</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.648359746189461</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.238556993580016</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -469,48 +475,54 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>11.94070867562075</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>11.95937697901105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.89100457203322</v>
+        <v>22.90163003753094</v>
       </c>
       <c r="C3">
-        <v>17.78087173513977</v>
+        <v>17.69799512937256</v>
       </c>
       <c r="D3">
-        <v>8.263523845990136</v>
+        <v>8.26007572599619</v>
       </c>
       <c r="E3">
-        <v>11.08555832958078</v>
+        <v>11.08377902300547</v>
       </c>
       <c r="F3">
-        <v>18.09666629335168</v>
+        <v>18.11868090820268</v>
       </c>
       <c r="G3">
-        <v>17.29581145683957</v>
+        <v>16.57661935400557</v>
       </c>
       <c r="I3">
-        <v>2.95312460850926</v>
+        <v>2.975380671756713</v>
       </c>
       <c r="J3">
-        <v>7.732607113804573</v>
+        <v>8.331432565850793</v>
       </c>
       <c r="K3">
-        <v>10.81552672839701</v>
+        <v>10.76455040956276</v>
       </c>
       <c r="L3">
-        <v>6.126782015191952</v>
+        <v>9.978705541550227</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.987951940368146</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.127694182616278</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -519,48 +531,54 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.00248532438218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.02647421939946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.85386809627754</v>
+        <v>21.87045382253028</v>
       </c>
       <c r="C4">
-        <v>17.03789149835401</v>
+        <v>16.90133371726098</v>
       </c>
       <c r="D4">
-        <v>8.009600097585993</v>
+        <v>8.00196622375617</v>
       </c>
       <c r="E4">
-        <v>10.77105414224903</v>
+        <v>10.76754139123337</v>
       </c>
       <c r="F4">
-        <v>17.93149578744532</v>
+        <v>17.96322432838834</v>
       </c>
       <c r="G4">
-        <v>17.15888115005419</v>
+        <v>16.45460009273786</v>
       </c>
       <c r="I4">
-        <v>2.847848638930253</v>
+        <v>2.881834474942734</v>
       </c>
       <c r="J4">
-        <v>7.791449650032596</v>
+        <v>8.364774622363754</v>
       </c>
       <c r="K4">
-        <v>11.04674940407165</v>
+        <v>10.97904783340771</v>
       </c>
       <c r="L4">
-        <v>6.060992141773125</v>
+        <v>10.12945628252852</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.213576207849481</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.06186157956349</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -569,48 +587,54 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.05290286087173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.07792261397389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.41616470848384</v>
+        <v>21.43526700013093</v>
       </c>
       <c r="C5">
-        <v>16.7402282089903</v>
+        <v>16.58070198705279</v>
       </c>
       <c r="D5">
-        <v>7.906671549579547</v>
+        <v>7.897308010271491</v>
       </c>
       <c r="E5">
-        <v>10.64260845910171</v>
+        <v>10.63836244110735</v>
       </c>
       <c r="F5">
-        <v>17.86053279762077</v>
+        <v>17.89573627877455</v>
       </c>
       <c r="G5">
-        <v>17.09561244265505</v>
+        <v>16.39745487657703</v>
       </c>
       <c r="I5">
-        <v>2.80483560118564</v>
+        <v>2.843956931326906</v>
       </c>
       <c r="J5">
-        <v>7.814639850596923</v>
+        <v>8.377029624624887</v>
       </c>
       <c r="K5">
-        <v>11.13986764339289</v>
+        <v>11.06514742861586</v>
       </c>
       <c r="L5">
-        <v>6.034618174632458</v>
+        <v>10.18983579150215</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.309618628281775</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.035446096712549</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -619,48 +643,54 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.0711145096201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.09612551098786</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.34240270115555</v>
+        <v>21.36192666296523</v>
       </c>
       <c r="C6">
-        <v>16.70710439026183</v>
+        <v>16.54345096014958</v>
       </c>
       <c r="D6">
-        <v>7.89196932873068</v>
+        <v>7.882260363772585</v>
       </c>
       <c r="E6">
-        <v>10.62233444500846</v>
+        <v>10.61793953398883</v>
       </c>
       <c r="F6">
-        <v>17.83976445040801</v>
+        <v>17.87571368646471</v>
       </c>
       <c r="G6">
-        <v>17.06886403218605</v>
+        <v>16.3715798855852</v>
       </c>
       <c r="I6">
-        <v>2.798537352282026</v>
+        <v>2.838858359047375</v>
       </c>
       <c r="J6">
-        <v>7.816071619214411</v>
+        <v>8.376706705356082</v>
       </c>
       <c r="K6">
-        <v>11.1523256311082</v>
+        <v>11.07642658045654</v>
       </c>
       <c r="L6">
-        <v>6.030061186627456</v>
+        <v>10.19592612725824</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.325829119659549</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.03088577033616</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -669,48 +699,54 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.06781765016704</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.09292944848925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.84754918193296</v>
+        <v>21.86392207788549</v>
       </c>
       <c r="C7">
-        <v>17.07885700454992</v>
+        <v>16.93528300782743</v>
       </c>
       <c r="D7">
-        <v>8.014855817053347</v>
+        <v>8.010899491236229</v>
       </c>
       <c r="E7">
-        <v>10.77233624921373</v>
+        <v>10.77048685215002</v>
       </c>
       <c r="F7">
-        <v>17.90548228547168</v>
+        <v>17.92356204166785</v>
       </c>
       <c r="G7">
-        <v>17.11284767376048</v>
+        <v>16.49615268147863</v>
       </c>
       <c r="I7">
-        <v>2.849336396012672</v>
+        <v>2.883781699432507</v>
       </c>
       <c r="J7">
-        <v>7.784940686334699</v>
+        <v>8.324290582553081</v>
       </c>
       <c r="K7">
-        <v>11.03955129283674</v>
+        <v>10.9693459354547</v>
       </c>
       <c r="L7">
-        <v>6.060049053796526</v>
+        <v>10.11623421356989</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.214481435659356</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.060610395544923</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -719,48 +755,54 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.03538189983924</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.05090506236684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.94626712033045</v>
+        <v>23.95006648136157</v>
       </c>
       <c r="C8">
-        <v>18.59922868083011</v>
+        <v>18.55124946372489</v>
       </c>
       <c r="D8">
-        <v>8.537313653198595</v>
+        <v>8.550288930216988</v>
       </c>
       <c r="E8">
-        <v>11.42028099429194</v>
+        <v>11.42569670958481</v>
       </c>
       <c r="F8">
-        <v>18.25385125584188</v>
+        <v>18.21756463035732</v>
       </c>
       <c r="G8">
-        <v>17.40472935967385</v>
+        <v>16.95830116380472</v>
       </c>
       <c r="I8">
-        <v>3.065399402237809</v>
+        <v>3.075096825330761</v>
       </c>
       <c r="J8">
-        <v>7.665183788877903</v>
+        <v>8.177568980088703</v>
       </c>
       <c r="K8">
-        <v>10.56247433545455</v>
+        <v>10.52123834660854</v>
       </c>
       <c r="L8">
-        <v>6.19826086605411</v>
+        <v>9.804982271997554</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.756409879989064</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.198072964377017</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -769,48 +811,54 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11.93581296633544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>11.92455123374634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.59485692872758</v>
+        <v>27.57669472187694</v>
       </c>
       <c r="C9">
-        <v>21.23193291881453</v>
+        <v>21.36673011389029</v>
       </c>
       <c r="D9">
-        <v>9.494990896422264</v>
+        <v>9.527065781681017</v>
       </c>
       <c r="E9">
-        <v>12.63504542859554</v>
+        <v>12.64770242390562</v>
       </c>
       <c r="F9">
-        <v>19.10443753339616</v>
+        <v>18.99333020816745</v>
       </c>
       <c r="G9">
-        <v>18.25952437141064</v>
+        <v>17.82747002292178</v>
       </c>
       <c r="I9">
-        <v>3.466462143899549</v>
+        <v>3.431223605424258</v>
       </c>
       <c r="J9">
-        <v>7.486349028317199</v>
+        <v>8.043007611002837</v>
       </c>
       <c r="K9">
-        <v>9.685629494529847</v>
+        <v>9.702470955887815</v>
       </c>
       <c r="L9">
-        <v>6.488093782042445</v>
+        <v>9.297504756085639</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.010256339620059</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.486631444328653</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -819,48 +867,54 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11.87881721659933</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>11.8313414533747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.99331443807506</v>
+        <v>29.95844993262706</v>
       </c>
       <c r="C10">
-        <v>23.01472020731065</v>
+        <v>23.23974584006517</v>
       </c>
       <c r="D10">
-        <v>10.16169439215179</v>
+        <v>10.22521691189887</v>
       </c>
       <c r="E10">
-        <v>13.48984628237044</v>
+        <v>13.51517670706408</v>
       </c>
       <c r="F10">
-        <v>19.79314211682137</v>
+        <v>19.54037628930796</v>
       </c>
       <c r="G10">
-        <v>18.99572811253831</v>
+        <v>19.04546849854053</v>
       </c>
       <c r="I10">
-        <v>3.750990690026456</v>
+        <v>3.682866582330921</v>
       </c>
       <c r="J10">
-        <v>7.382056644214178</v>
+        <v>7.764087785376159</v>
       </c>
       <c r="K10">
-        <v>9.062519431996048</v>
+        <v>9.105138440769524</v>
       </c>
       <c r="L10">
-        <v>6.710370524036626</v>
+        <v>8.964387429506395</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.554471909451744</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.705522452588173</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -869,48 +923,54 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11.90309532870164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.759014151742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.02348342345423</v>
+        <v>30.97932960445952</v>
       </c>
       <c r="C11">
-        <v>23.84277505941999</v>
+        <v>24.05911212387347</v>
       </c>
       <c r="D11">
-        <v>10.46375844288769</v>
+        <v>10.57199963275077</v>
       </c>
       <c r="E11">
-        <v>13.87275148765164</v>
+        <v>13.91738436967638</v>
       </c>
       <c r="F11">
-        <v>20.08679301711393</v>
+        <v>19.63614343963269</v>
       </c>
       <c r="G11">
-        <v>19.2952065021377</v>
+        <v>20.3721809061679</v>
       </c>
       <c r="I11">
-        <v>3.881673745658956</v>
+        <v>3.797050593045773</v>
       </c>
       <c r="J11">
-        <v>7.330816105876611</v>
+        <v>7.327945906341488</v>
       </c>
       <c r="K11">
-        <v>8.769998992945277</v>
+        <v>8.804989027209963</v>
       </c>
       <c r="L11">
-        <v>6.812458061245715</v>
+        <v>8.811963507989065</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.327683962600096</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.802738610642455</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -919,48 +979,54 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11.9041219331289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.61233102518459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.40525015018246</v>
+        <v>31.35740603030652</v>
       </c>
       <c r="C12">
-        <v>24.1212183194527</v>
+        <v>24.32932948877633</v>
       </c>
       <c r="D12">
-        <v>10.57218156844221</v>
+        <v>10.70101329365043</v>
       </c>
       <c r="E12">
-        <v>14.01420960961684</v>
+        <v>14.06777162749368</v>
       </c>
       <c r="F12">
-        <v>20.21971346160046</v>
+        <v>19.67705126398116</v>
       </c>
       <c r="G12">
-        <v>19.44748107500784</v>
+        <v>21.0090387866031</v>
       </c>
       <c r="I12">
-        <v>3.929092875981245</v>
+        <v>3.837168910851609</v>
       </c>
       <c r="J12">
-        <v>7.318594583180592</v>
+        <v>7.145180521628808</v>
       </c>
       <c r="K12">
-        <v>8.667480140315426</v>
+        <v>8.695614587158088</v>
       </c>
       <c r="L12">
-        <v>6.851827371612989</v>
+        <v>8.759759041060423</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.248046629477956</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.839821342007668</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -969,48 +1035,54 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11.92251142761813</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.56053105740159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.32346739114346</v>
+        <v>31.27642331006203</v>
       </c>
       <c r="C13">
-        <v>24.05565403443672</v>
+        <v>24.26590363394097</v>
       </c>
       <c r="D13">
-        <v>10.54800445440964</v>
+        <v>10.67226624850763</v>
       </c>
       <c r="E13">
-        <v>13.98340658926599</v>
+        <v>14.0349862650694</v>
       </c>
       <c r="F13">
-        <v>20.19482652589179</v>
+        <v>19.67258916992534</v>
       </c>
       <c r="G13">
-        <v>19.42135920213995</v>
+        <v>20.87419793132725</v>
       </c>
       <c r="I13">
-        <v>3.918484933371437</v>
+        <v>3.827970066268523</v>
       </c>
       <c r="J13">
-        <v>7.322385045770796</v>
+        <v>7.186010063025715</v>
       </c>
       <c r="K13">
-        <v>8.691048522276803</v>
+        <v>8.720379366578198</v>
       </c>
       <c r="L13">
-        <v>6.843430777148524</v>
+        <v>8.771363682639821</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.266900757166168</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.831934055307899</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1019,48 +1091,54 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.92146088956027</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.5750565396711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.0550876246886</v>
+        <v>31.01063270972721</v>
       </c>
       <c r="C14">
-        <v>23.86329232857708</v>
+        <v>24.07911499371268</v>
       </c>
       <c r="D14">
-        <v>10.47232626325537</v>
+        <v>10.58219991497394</v>
       </c>
       <c r="E14">
-        <v>13.88424629214414</v>
+        <v>13.92958681683395</v>
       </c>
       <c r="F14">
-        <v>20.09932259865498</v>
+        <v>19.64138014424583</v>
       </c>
       <c r="G14">
-        <v>19.31058143686333</v>
+        <v>20.42546334301892</v>
       </c>
       <c r="I14">
-        <v>3.88540100957748</v>
+        <v>3.800107044372566</v>
       </c>
       <c r="J14">
-        <v>7.330301303898551</v>
+        <v>7.313606381050302</v>
       </c>
       <c r="K14">
-        <v>8.762193277338412</v>
+        <v>8.796516228745279</v>
       </c>
       <c r="L14">
-        <v>6.815731799117504</v>
+        <v>8.807838793156881</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.32184269996393</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.805831860308611</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1069,48 +1147,54 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.90687014655078</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.60951634542724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.88946627202397</v>
+        <v>30.8465794332101</v>
       </c>
       <c r="C15">
-        <v>23.75643554490188</v>
+        <v>23.97471291409383</v>
       </c>
       <c r="D15">
-        <v>10.42756361143569</v>
+        <v>10.52904152231087</v>
       </c>
       <c r="E15">
-        <v>13.82412147197149</v>
+        <v>13.86582373780231</v>
       </c>
       <c r="F15">
-        <v>20.03348308896123</v>
+        <v>19.61302178549437</v>
       </c>
       <c r="G15">
-        <v>19.22960396089471</v>
+        <v>20.1501399558414</v>
       </c>
       <c r="I15">
-        <v>3.86598826132829</v>
+        <v>3.784220136866925</v>
       </c>
       <c r="J15">
-        <v>7.33292060666998</v>
+        <v>7.387655759021746</v>
       </c>
       <c r="K15">
-        <v>8.802904175648269</v>
+        <v>8.84061324162402</v>
       </c>
       <c r="L15">
-        <v>6.798612445013272</v>
+        <v>8.829404989363681</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.352215411191664</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.789639082485699</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1119,48 +1203,54 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.89230314101274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.62349567713893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.92382228944695</v>
+        <v>29.88955867666402</v>
       </c>
       <c r="C16">
-        <v>23.06024889164669</v>
+        <v>23.2830270322123</v>
       </c>
       <c r="D16">
-        <v>10.15705290793307</v>
+        <v>10.21776768402247</v>
       </c>
       <c r="E16">
-        <v>13.47157050543038</v>
+        <v>13.49568103196848</v>
       </c>
       <c r="F16">
-        <v>19.70906776787509</v>
+        <v>19.4690883362039</v>
       </c>
       <c r="G16">
-        <v>18.85989586765776</v>
+        <v>18.85709603383521</v>
       </c>
       <c r="I16">
-        <v>3.748909007031968</v>
+        <v>3.684591075182577</v>
       </c>
       <c r="J16">
-        <v>7.365485526995179</v>
+        <v>7.771974839290108</v>
       </c>
       <c r="K16">
-        <v>9.056799853085295</v>
+        <v>9.103945192973868</v>
       </c>
       <c r="L16">
-        <v>6.70216822393482</v>
+        <v>8.963199296677795</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.544633087551542</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.697623303215587</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1169,48 +1259,54 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.85262882981683</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.71865494363175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.31600535215002</v>
+        <v>29.28669839448536</v>
       </c>
       <c r="C17">
-        <v>22.62383544271507</v>
+        <v>22.83935433790591</v>
       </c>
       <c r="D17">
-        <v>9.988648424890783</v>
+        <v>10.03064397015101</v>
       </c>
       <c r="E17">
-        <v>13.25275273711433</v>
+        <v>13.26885651830802</v>
       </c>
       <c r="F17">
-        <v>19.51425128866702</v>
+        <v>19.35636542777172</v>
       </c>
       <c r="G17">
-        <v>18.64048329945517</v>
+        <v>18.24086642019028</v>
       </c>
       <c r="I17">
-        <v>3.676716473601037</v>
+        <v>3.622572785520712</v>
       </c>
       <c r="J17">
-        <v>7.38754601997135</v>
+        <v>7.951126520745897</v>
       </c>
       <c r="K17">
-        <v>9.214051182403342</v>
+        <v>9.262108425180768</v>
       </c>
       <c r="L17">
-        <v>6.643461863945964</v>
+        <v>9.047574776533414</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.662316381168162</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.640901254275825</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1219,48 +1315,54 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.83331032984244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.7589909035337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.96101372058687</v>
+        <v>28.93442333055929</v>
       </c>
       <c r="C18">
-        <v>22.33807844463932</v>
+        <v>22.54632051883927</v>
       </c>
       <c r="D18">
-        <v>9.886139732158625</v>
+        <v>9.919787144152343</v>
       </c>
       <c r="E18">
-        <v>13.12382273174533</v>
+        <v>13.13639747089956</v>
       </c>
       <c r="F18">
-        <v>19.42383934343801</v>
+        <v>19.30225902565254</v>
       </c>
       <c r="G18">
-        <v>18.55309051922496</v>
+        <v>17.98634375361272</v>
       </c>
       <c r="I18">
-        <v>3.632285947534055</v>
+        <v>3.582769555734821</v>
       </c>
       <c r="J18">
-        <v>7.40703885634359</v>
+        <v>8.035905871335707</v>
       </c>
       <c r="K18">
-        <v>9.312408900607975</v>
+        <v>9.358215737669978</v>
       </c>
       <c r="L18">
-        <v>6.610351269902831</v>
+        <v>9.100662530527922</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.736921279478866</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.608660188230848</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1269,48 +1371,54 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.83943246500469</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.79068181699098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.83961137166469</v>
+        <v>28.81392195034219</v>
       </c>
       <c r="C19">
-        <v>22.2648364598093</v>
+        <v>22.46949804851578</v>
       </c>
       <c r="D19">
-        <v>9.854947648487013</v>
+        <v>9.886072534629479</v>
       </c>
       <c r="E19">
-        <v>13.08168272746997</v>
+        <v>13.09319569681524</v>
       </c>
       <c r="F19">
-        <v>19.3780275462511</v>
+        <v>19.26748388941495</v>
       </c>
       <c r="G19">
-        <v>18.49618775730915</v>
+        <v>17.88354483378043</v>
       </c>
       <c r="I19">
-        <v>3.619279392811967</v>
+        <v>3.572054353892593</v>
       </c>
       <c r="J19">
-        <v>7.409083658806138</v>
+        <v>8.056275516502902</v>
       </c>
       <c r="K19">
-        <v>9.340111966938277</v>
+        <v>9.385638647677236</v>
       </c>
       <c r="L19">
-        <v>6.598801305796131</v>
+        <v>9.115565987876503</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.757118416176154</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.59737117163854</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1319,48 +1427,54 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11.82990140932291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.78893868382647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.38131986305931</v>
+        <v>29.35149814177016</v>
       </c>
       <c r="C20">
-        <v>22.6682179026877</v>
+        <v>22.88494214082504</v>
       </c>
       <c r="D20">
-        <v>10.00629760165353</v>
+        <v>10.05005653716514</v>
       </c>
       <c r="E20">
-        <v>13.27597265982646</v>
+        <v>13.29282725550492</v>
       </c>
       <c r="F20">
-        <v>19.53639444055918</v>
+        <v>19.37078996604302</v>
       </c>
       <c r="G20">
-        <v>18.66636741233959</v>
+        <v>18.30257950802424</v>
       </c>
       <c r="I20">
-        <v>3.684195007812588</v>
+        <v>3.628909828404198</v>
       </c>
       <c r="J20">
-        <v>7.385596901008119</v>
+        <v>7.934874178895318</v>
       </c>
       <c r="K20">
-        <v>9.197833773110659</v>
+        <v>9.24589153250178</v>
       </c>
       <c r="L20">
-        <v>6.649730764619501</v>
+        <v>9.038834737983723</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4.650308687595304</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.646984934444271</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1369,48 +1483,54 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11.83638982140841</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>11.75651701981438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.13384102912233</v>
+        <v>31.0880536577552</v>
       </c>
       <c r="C21">
-        <v>23.95276690297711</v>
+        <v>24.1502480249888</v>
       </c>
       <c r="D21">
-        <v>10.4996027444099</v>
+        <v>10.62461534297684</v>
       </c>
       <c r="E21">
-        <v>13.91568761308115</v>
+        <v>13.96777268001356</v>
       </c>
       <c r="F21">
-        <v>20.10571842767704</v>
+        <v>19.5826780370064</v>
       </c>
       <c r="G21">
-        <v>19.30445937440942</v>
+        <v>20.80621346109356</v>
       </c>
       <c r="I21">
-        <v>3.897654297504142</v>
+        <v>3.810681437981964</v>
       </c>
       <c r="J21">
-        <v>7.321150290529904</v>
+        <v>7.175184363045971</v>
       </c>
       <c r="K21">
-        <v>8.732796117941147</v>
+        <v>8.760566384026657</v>
       </c>
       <c r="L21">
-        <v>6.823339647570934</v>
+        <v>8.791024542174966</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>4.286093520587466</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.811855602244651</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1419,48 +1539,54 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11.89402749459159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.54736151965799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.22938542134168</v>
+        <v>32.17317588874089</v>
       </c>
       <c r="C22">
-        <v>24.72015154996761</v>
+        <v>24.90048618269859</v>
       </c>
       <c r="D22">
-        <v>10.8074242212087</v>
+        <v>10.9879459218476</v>
       </c>
       <c r="E22">
-        <v>14.32229592363398</v>
+        <v>14.39832682955241</v>
       </c>
       <c r="F22">
-        <v>20.5187460021161</v>
+        <v>19.74349766361111</v>
       </c>
       <c r="G22">
-        <v>19.7943116080764</v>
+        <v>22.5935807854358</v>
       </c>
       <c r="I22">
-        <v>4.032687936136341</v>
+        <v>3.924262420631949</v>
       </c>
       <c r="J22">
-        <v>7.294813456633266</v>
+        <v>6.73104014755659</v>
       </c>
       <c r="K22">
-        <v>8.444552067666802</v>
+        <v>8.452777085806515</v>
       </c>
       <c r="L22">
-        <v>6.938887462636522</v>
+        <v>8.650590696119183</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>4.070736779202225</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.921050292827455</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1469,48 +1595,54 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11.97038985667917</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.42845683157294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.64961677777798</v>
+        <v>31.59934238857617</v>
       </c>
       <c r="C23">
-        <v>24.27417182096914</v>
+        <v>24.4760012697115</v>
       </c>
       <c r="D23">
-        <v>10.63791858267788</v>
+        <v>10.78112681283793</v>
       </c>
       <c r="E23">
-        <v>14.10337336930684</v>
+        <v>14.1631810576003</v>
       </c>
       <c r="F23">
-        <v>20.3229525360431</v>
+        <v>19.71567786355239</v>
       </c>
       <c r="G23">
-        <v>19.57683159674651</v>
+        <v>21.47740379187858</v>
       </c>
       <c r="I23">
-        <v>3.958015699702908</v>
+        <v>3.860595198052103</v>
       </c>
       <c r="J23">
-        <v>7.316378562836913</v>
+        <v>7.027126241957318</v>
       </c>
       <c r="K23">
-        <v>8.608261865852921</v>
+        <v>8.629362116169565</v>
       </c>
       <c r="L23">
-        <v>6.877719493447181</v>
+        <v>8.728702590402323</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>4.20350302785798</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.864103117717617</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1519,48 +1651,54 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11.94853174470959</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.5366259598058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.35243398119816</v>
+        <v>29.32283439701204</v>
       </c>
       <c r="C24">
-        <v>22.58264278443514</v>
+        <v>22.80013671014307</v>
       </c>
       <c r="D24">
-        <v>9.988349221608161</v>
+        <v>10.03154996614177</v>
       </c>
       <c r="E24">
-        <v>13.26094501499046</v>
+        <v>13.27757191765359</v>
       </c>
       <c r="F24">
-        <v>19.56860970853995</v>
+        <v>19.4051859771906</v>
       </c>
       <c r="G24">
-        <v>18.73045048101291</v>
+        <v>18.34954230229807</v>
       </c>
       <c r="I24">
-        <v>3.675808079825392</v>
+        <v>3.619085801222157</v>
       </c>
       <c r="J24">
-        <v>7.399326544388305</v>
+        <v>7.953436888640073</v>
       </c>
       <c r="K24">
-        <v>9.220924481838821</v>
+        <v>9.266641335375352</v>
       </c>
       <c r="L24">
-        <v>6.647907581667735</v>
+        <v>9.050952152821239</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>4.67045244350351</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.645218815322355</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1569,48 +1707,54 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11.86762665467086</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>11.78891008328207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.65691247313341</v>
+        <v>26.64485525628528</v>
       </c>
       <c r="C25">
-        <v>20.61811131895987</v>
+        <v>20.71237652665024</v>
       </c>
       <c r="D25">
-        <v>9.252928007090128</v>
+        <v>9.274851680768929</v>
       </c>
       <c r="E25">
-        <v>12.31749180114455</v>
+        <v>12.32601266738321</v>
       </c>
       <c r="F25">
-        <v>18.81838650574197</v>
+        <v>18.7501706085664</v>
       </c>
       <c r="G25">
-        <v>17.9289007092015</v>
+        <v>17.3728882320739</v>
       </c>
       <c r="I25">
-        <v>3.363686873373759</v>
+        <v>3.342463103064109</v>
       </c>
       <c r="J25">
-        <v>7.517224612456586</v>
+        <v>8.113571764739183</v>
       </c>
       <c r="K25">
-        <v>9.903064685490506</v>
+        <v>9.909783969672876</v>
       </c>
       <c r="L25">
-        <v>6.40689870690452</v>
+        <v>9.417961156048843</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.186640435847027</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.40636714811535</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1619,7 +1763,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11.84981333379278</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>11.82960744611059</v>
       </c>
     </row>
   </sheetData>
